--- a/Invoice-doc/基本設計書_請求書RESTAPI.xlsx
+++ b/Invoice-doc/基本設計書_請求書RESTAPI.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="170">
   <si>
     <t>【共通仕様】</t>
     <rPh sb="1" eb="3">
@@ -626,9 +626,6 @@
     <t>invoice_start_date</t>
   </si>
   <si>
-    <t>請求期間開始日</t>
-  </si>
-  <si>
     <t>invoice_end_date</t>
   </si>
   <si>
@@ -793,10 +790,6 @@
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -893,10 +886,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/invoice/all</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/invoice/[請求書管理番号]</t>
     <rPh sb="10" eb="13">
       <t>セイキュウショ</t>
@@ -1108,59 +1097,166 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>/invoice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録者名</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用するプロトコル</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/invoice/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下、顧客情報・請求書情報を記載しています。</t>
+    <rPh sb="3" eb="5">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベルを返却する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>使用</t>
+      <t>1) 請求書の登録時</t>
     </r>
+    <rPh sb="4" eb="7">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客管理番号</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクカンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>client_no</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■入力エラーチェック</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の入力チェックを行います。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書管理番号</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時のメッセージ</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLに請求書管理番号が指定されたときのみチェックする。</t>
+    <rPh sb="4" eb="7">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>するプロトコル</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"results":[{"client":(顧客情報1),"invoice":(請求書情報1)},{"client":(顧客情報2),"invoice":(請求書情報2)},{}…]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の配列が返却されます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>以下、</t>
+      <t>{</t>
     </r>
     <r>
       <rPr>
@@ -1171,60 +1267,36 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>顧客情報・請求書情報</t>
+      <t>"message":"メッセージ",</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を記載しています。</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{"results":{"client":(顧客情報),"invoice":(請求書情報)}</t>
+      <t xml:space="preserve"> "results":[{"client":(顧客情報1),"invoice":(請求書情報1)},{"client":(顧客情報2),"invoice":(請求書情報2)},{}…]}の配列が返却されます。</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「message」には、処理結果が返却されます。</t>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が返却されます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/invoice</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
+      <t>{</t>
     </r>
     <r>
       <rPr>
@@ -1235,7 +1307,295 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">"message":"メッセージ", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"results":{"client":(顧客情報),"invoice":(請求書情報)}が返却されます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■エラー時のレスポンスボディ</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力エラーチェック時にエラー判定になった場合や、取得する情報が存在しない場合、</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{"message":"メッセージ"}が返却されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック項目名</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客管理番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書管理番号が設定されていません。</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型チェック [数字]</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間開始日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間開始日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間終了日</t>
+    <rPh sb="4" eb="7">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>invoice_create_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間開始日が設定されていません。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間終了日が設定されていません。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録者名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録者名が設定されていません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書作成日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書作成日が設定されていません。</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型チェック [日付]</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間開始日が日付形式ではありません。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書管理番号が数字形式ではありません。</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求期間終了日が日付形式ではありません。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型チェック [文字]</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録者名が文字列形式ではありません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求書作成日が日付形式ではありません。</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の形式であることをチェックする。
+yyyy/MM/dd</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"message":"メッセージ", </t>
     </r>
     <r>
       <rPr>
@@ -1245,46 +1605,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) 請求書の登録時</t>
+      <t>"results":{(オブジェクト情報)}}が返却されます。</t>
     </r>
-    <rPh sb="4" eb="7">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力エラーチェック時にエラー判定になった場合や、請求書の登録処理に失敗した場合、</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
       <t>セイキュウショ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="28" eb="30">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録日時</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録者名</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{"results":{(オブジェクト情報)}}が返却されます。</t>
+    <rPh sb="30" eb="32">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1292,7 +1645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,7 +1677,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1332,7 +1691,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1352,7 +1710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1474,11 +1832,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1513,22 +1889,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,59 +1946,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,6 +2030,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1919,76 +2354,76 @@
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
@@ -2004,31 +2439,31 @@
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="5">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="14" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
@@ -2044,58 +2479,70 @@
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="13" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="5">
         <v>2</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:K36"/>
     <mergeCell ref="C26:E26"/>
@@ -2104,18 +2551,6 @@
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:K35"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,7 +2560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2169,67 +2604,67 @@
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
+      <c r="C16" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="H16" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="11"/>
@@ -2271,1208 +2706,1369 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B33" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+    </row>
+    <row r="34" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="16">
+        <v>1</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="2" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B38" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B47" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="37"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B48" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="37"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49" s="37" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B41" s="3" t="s">
+      <c r="C49" s="37"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="12" t="s">
+      <c r="C51" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="3" t="s">
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L51" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B42" s="5">
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52" s="5">
         <v>1</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35" t="s">
+      <c r="C52" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B43" s="5">
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="5">
         <v>2</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="13" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13" t="s">
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="5" t="s">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B44" s="5">
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="5">
         <v>3</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="13" t="s">
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13" t="s">
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="5" t="s">
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B45" s="6">
-        <v>4</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B46" s="6">
-        <v>5</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B47" s="6">
-        <v>6</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B48" s="6">
-        <v>7</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-    </row>
-    <row r="49" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="6">
-        <v>8</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L49" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-    </row>
-    <row r="50" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="6">
-        <v>9</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B51" s="6">
-        <v>10</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B52" s="6">
-        <v>11</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="6">
-        <v>12</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B54" s="6">
-        <v>13</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55" s="6">
-        <v>14</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56" s="6">
-        <v>15</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-    </row>
-    <row r="57" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57" s="6">
-        <v>16</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L57" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-    </row>
-    <row r="58" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58" s="6">
-        <v>17</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L58" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+    </row>
+    <row r="59" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="6">
-        <v>18</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L59" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+    </row>
+    <row r="60" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="6">
-        <v>19</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-    </row>
-    <row r="61" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L60" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61" s="6">
-        <v>20</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L61" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62" s="6">
-        <v>21</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-    </row>
-    <row r="63" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L62" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="6">
-        <v>22</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="35" t="s">
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L63" s="36" t="s">
+      <c r="L63" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B64" s="6">
+        <v>13</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B65" s="6">
+        <v>14</v>
+      </c>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="6">
+        <v>15</v>
+      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+    </row>
+    <row r="67" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="6">
+        <v>16</v>
+      </c>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B66" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B68" s="26" t="s">
-        <v>128</v>
-      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+    </row>
+    <row r="68" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="6">
+        <v>17</v>
+      </c>
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B69" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
+      <c r="B69" s="6">
+        <v>18</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B70" s="6">
+        <v>19</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+    </row>
+    <row r="71" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="6">
+        <v>20</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72" s="6">
+        <v>21</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+    </row>
+    <row r="73" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="6">
+        <v>22</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="37"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="37"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="37"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B83" s="6">
         <v>1</v>
       </c>
-      <c r="C72" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="35" t="s">
+      <c r="C83" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="39"/>
+      <c r="E83" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B73" s="6">
-        <v>2</v>
-      </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B74" s="6">
-        <v>3</v>
-      </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B75" s="6">
-        <v>4</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B76" s="6">
-        <v>5</v>
-      </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B77" s="6">
-        <v>6</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B78" s="6">
-        <v>7</v>
-      </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-    </row>
-    <row r="79" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="6">
-        <v>8</v>
-      </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L79" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-    </row>
-    <row r="80" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="6">
-        <v>9</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L80" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B81" s="6">
-        <v>10</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B82" s="6">
-        <v>11</v>
-      </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-    </row>
-    <row r="83" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="6">
-        <v>12</v>
-      </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84" s="6">
-        <v>13</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85" s="6">
-        <v>14</v>
-      </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86" s="6">
-        <v>15</v>
-      </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87" s="6">
-        <v>16</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L87" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-    </row>
-    <row r="88" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88" s="6">
-        <v>17</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="41"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L88" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89" s="6">
-        <v>18</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+    </row>
+    <row r="90" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="6">
-        <v>19</v>
-      </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
+      <c r="L90" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
     </row>
     <row r="91" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="6">
-        <v>20</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33" t="s">
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L91" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="6">
+        <v>10</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="6">
+        <v>11</v>
+      </c>
+      <c r="C93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L93" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+    </row>
+    <row r="94" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="6">
+        <v>12</v>
+      </c>
+      <c r="C94" s="41"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="6">
+        <v>13</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="6">
+        <v>14</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B97" s="6">
+        <v>15</v>
+      </c>
+      <c r="C97" s="41"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
+    </row>
+    <row r="98" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="6">
+        <v>16</v>
+      </c>
+      <c r="C98" s="41"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+    </row>
+    <row r="99" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="6">
+        <v>17</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B100" s="6">
+        <v>18</v>
+      </c>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B101" s="6">
+        <v>19</v>
+      </c>
+      <c r="C101" s="41"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+    </row>
+    <row r="102" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="6">
+        <v>20</v>
+      </c>
+      <c r="C102" s="41"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L102" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B103" s="6">
         <v>21</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33" t="s">
+      <c r="C103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="35" t="s">
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-    </row>
-    <row r="93" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="6">
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+    </row>
+    <row r="104" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="6">
         <v>22</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="35" t="s">
+      <c r="C104" s="44"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L93" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
+      <c r="L104" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A108" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A110" s="48"/>
+      <c r="B110" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="48"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A111" s="48"/>
+      <c r="B111" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" s="48"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A112" s="48"/>
+      <c r="C112" s="48"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="48"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="48"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="48"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="48"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="48"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="48"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="48"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="C81:D93"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="E82:G82"/>
+  <mergeCells count="158">
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="L101:O101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="C61:D73"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="C82:D82"/>
     <mergeCell ref="H82:J82"/>
     <mergeCell ref="L82:O82"/>
-    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="C83:D91"/>
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="L83:O83"/>
     <mergeCell ref="E84:G84"/>
@@ -3481,140 +4077,125 @@
     <mergeCell ref="E85:G85"/>
     <mergeCell ref="H85:J85"/>
     <mergeCell ref="L85:O85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="L69:O69"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C52:D60"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="C42:D50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H52:J52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="H60:J60"/>
     <mergeCell ref="E61:G61"/>
     <mergeCell ref="H61:J61"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="C51:D63"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="C72:D80"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="L72:O72"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="H73:J73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="E86:G86"/>
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="L86:O86"/>
     <mergeCell ref="E87:G87"/>
     <mergeCell ref="H87:J87"/>
     <mergeCell ref="L87:O87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="C92:D104"/>
     <mergeCell ref="E92:G92"/>
     <mergeCell ref="H92:J92"/>
     <mergeCell ref="L92:O92"/>
     <mergeCell ref="E93:G93"/>
     <mergeCell ref="H93:J93"/>
     <mergeCell ref="L93:O93"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="H97:J97"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3623,7 +4204,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3635,22 +4216,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -3660,54 +4241,54 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
@@ -3721,294 +4302,708 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="B25" s="46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="B27" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B28" s="37"/>
     </row>
     <row r="29" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="19"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="38">
+      <c r="B30" s="16">
         <v>1</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="40">
+        <v>2</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="40">
+        <v>3</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-    </row>
-    <row r="31" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="38">
-        <v>2</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="38">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="38">
+      <c r="K32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+    </row>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="40">
         <v>4</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="1:18" ht="45.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="40">
+        <v>5</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="10" t="s">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B39" s="48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B41" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+    </row>
+    <row r="42" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="16">
+        <v>1</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+    </row>
+    <row r="43" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="16">
+        <v>2</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+    </row>
+    <row r="44" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="16">
+        <v>3</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+    </row>
+    <row r="45" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="16">
+        <v>4</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+    </row>
+    <row r="46" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="16">
+        <v>5</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="54"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+    </row>
+    <row r="47" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="16">
+        <v>6</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+    </row>
+    <row r="48" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="16">
+        <v>7</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+    </row>
+    <row r="49" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="16">
+        <v>8</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+    </row>
+    <row r="50" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="16">
+        <v>9</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+    </row>
+    <row r="51" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="16">
+        <v>10</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B61" s="46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B63" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B64" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="37"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B65" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+    </row>
+    <row r="68" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="13" t="s">
+      <c r="K68" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="5">
+        <v>2</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="5" t="s">
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K69" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-    </row>
-    <row r="50" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="5">
-        <v>2</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="48"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76" s="48"/>
+      <c r="B76" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="L32:P32"/>
+  <mergeCells count="70">
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="L31:P31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="L33:P33"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="L30:P30"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="L29:P29"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="K69:O69"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Invoice-doc/基本設計書_請求書RESTAPI.xlsx
+++ b/Invoice-doc/基本設計書_請求書RESTAPI.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="177">
   <si>
     <t>【共通仕様】</t>
     <rPh sb="1" eb="3">
@@ -1564,29 +1564,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"message":[(オブジェクト情報1),(オブジェクト情報2),…]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が返却されます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ情報</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
@@ -1594,59 +1571,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"message":[(オブジェクト情報1),(オブジェクト情報2),…]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が返却されます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"message":[(メッセージ情報1),(メッセージ情報2),…], "results":{(請求書情報)}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が返却されます。</t>
-    </r>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>セイキュウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以下、メッセージ情報・請求書情報を記載しています。</t>
     <rPh sb="8" eb="10">
       <t>ジョウホウ</t>
@@ -1686,57 +1610,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>{"message":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[(メッセージ情報1),(メッセージ情報2),…]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, "results":[{"client":(顧客情報1),"invoice":(請求書情報1)},{"client":(顧客情報2),"invoice":(請求書情報2)},{}…]}の配列が返却されます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>{"message":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[(メッセージ情報1),(メッセージ情報2),…]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, "results":{"client":(顧客情報),"invoice":(請求書情報)}が返却されます。</t>
-    </r>
+    <t>{"message":[(メッセージ情報1),(メッセージ情報2),…], "results":[{"client":(顧客情報1),"invoice":(請求書情報1)},{"client":(顧客情報2),"invoice":(請求書情報2)},{}…]}の配列が返却されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{"message":[(メッセージ情報1),(メッセージ情報2),…], "results":{"client":(顧客情報),"invoice":(請求書情報)}が返却されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{"message":[(オブジェクト情報1),(オブジェクト情報2),…]}が返却されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{"message":[(メッセージ情報1),(メッセージ情報2),…], "results":{(請求書情報)}}が返却されます。</t>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>セイキュウショ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1744,7 +1636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,28 +1660,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1953,7 +1830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1964,40 +1841,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,9 +1866,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,106 +1880,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,20 +1955,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2477,76 +2297,76 @@
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>4</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
@@ -2562,31 +2382,31 @@
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
@@ -2602,70 +2422,58 @@
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="2:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>2</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:K36"/>
     <mergeCell ref="C26:E26"/>
@@ -2674,6 +2482,18 @@
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:K35"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2685,1766 +2505,1744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.09765625" style="2"/>
+    <col min="1" max="2" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="5">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="5" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13" t="s">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41" t="s">
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="42" t="s">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
     </row>
     <row r="34" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27" t="s">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B47" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="11"/>
+      <c r="B47" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="11"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="3" t="s">
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="25" t="s">
+      <c r="L51" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B52" s="53">
+      <c r="B52" s="36">
         <v>1</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="39"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="41"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="36">
+        <v>2</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="54"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="56"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B53" s="53">
-        <v>2</v>
-      </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="I53" s="58"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L53" s="54"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="56"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="39"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="41"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B54" s="5">
+      <c r="B54" s="7">
         <v>3</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="26" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B55" s="53">
+      <c r="B55" s="36">
         <v>4</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="26" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26" t="s">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B56" s="17">
+      <c r="B56" s="7">
         <v>5</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="26" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B57" s="53">
+      <c r="B57" s="36">
         <v>6</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="26" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B58" s="17">
+      <c r="B58" s="7">
         <v>7</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="26" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B59" s="53">
+      <c r="B59" s="36">
         <v>8</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="26" t="s">
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B60" s="17">
+      <c r="B60" s="7">
         <v>9</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="26" t="s">
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="53">
+      <c r="B61" s="36">
         <v>10</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="26" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L61" s="27" t="s">
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
     </row>
     <row r="62" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="17">
+      <c r="B62" s="7">
         <v>11</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="26" t="s">
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L62" s="27" t="s">
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B63" s="53">
+      <c r="B63" s="36">
         <v>12</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="26" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B64" s="17">
+      <c r="B64" s="7">
         <v>13</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="26" t="s">
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" s="26" t="s">
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="53">
+      <c r="B65" s="36">
         <v>14</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="26" t="s">
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L65" s="27" t="s">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B66" s="17">
+      <c r="B66" s="7">
         <v>15</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="26" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26" t="s">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B67" s="53">
+      <c r="B67" s="36">
         <v>16</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="26" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26" t="s">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B68" s="17">
+      <c r="B68" s="7">
         <v>17</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="26" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
     </row>
     <row r="69" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="53">
+      <c r="B69" s="36">
         <v>18</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="26" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26" t="s">
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L69" s="27" t="s">
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
     </row>
     <row r="70" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="17">
+      <c r="B70" s="7">
         <v>19</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="26" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L70" s="27" t="s">
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B71" s="53">
+      <c r="B71" s="36">
         <v>20</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="26" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26" t="s">
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B72" s="17">
+      <c r="B72" s="7">
         <v>21</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="26" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26" t="s">
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
     </row>
     <row r="73" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="53">
+      <c r="B73" s="36">
         <v>22</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="26" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26" t="s">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L73" s="27" t="s">
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B74" s="17">
+      <c r="B74" s="7">
         <v>23</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="26" t="s">
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26" t="s">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
     </row>
     <row r="75" spans="2:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="53">
+      <c r="B75" s="36">
         <v>24</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="26" t="s">
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26" t="s">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L75" s="27" t="s">
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B80" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C80" s="11"/>
+      <c r="B80" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="11"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="11"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="25" t="s">
+      <c r="D84" s="34"/>
+      <c r="E84" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="4" t="s">
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L84" s="25" t="s">
+      <c r="L84" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B85" s="53">
+      <c r="B85" s="36">
         <v>1</v>
       </c>
-      <c r="C85" s="61" t="s">
+      <c r="C85" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="38"/>
+      <c r="E85" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I85" s="40"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="39"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="41"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B86" s="36">
+        <v>2</v>
+      </c>
+      <c r="C86" s="42"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="I85" s="58"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L85" s="54"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="56"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B86" s="53">
-        <v>2</v>
-      </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="I86" s="58"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L86" s="54"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="56"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L86" s="39"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="41"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B87" s="6">
+      <c r="B87" s="7">
         <v>3</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="26" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B88" s="53">
+      <c r="B88" s="36">
         <v>4</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="26" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26" t="s">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B89" s="17">
+      <c r="B89" s="7">
         <v>5</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="26" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="53">
+      <c r="B90" s="36">
         <v>6</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="26" t="s">
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26" t="s">
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="17">
+      <c r="B91" s="7">
         <v>7</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="26" t="s">
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26" t="s">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="53">
+      <c r="B92" s="36">
         <v>8</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="26" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26" t="s">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="17">
+      <c r="B93" s="7">
         <v>9</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="26" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26" t="s">
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
     </row>
     <row r="94" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="53">
+      <c r="B94" s="36">
         <v>10</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="26" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26" t="s">
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L94" s="27" t="s">
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
     </row>
     <row r="95" spans="2:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="17">
+      <c r="B95" s="7">
         <v>11</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="26" t="s">
+      <c r="C95" s="23"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26" t="s">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L95" s="27" t="s">
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="53">
+      <c r="B96" s="36">
         <v>12</v>
       </c>
       <c r="C96" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="26" t="s">
+      <c r="D96" s="20"/>
+      <c r="E96" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26" t="s">
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L96" s="26"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B97" s="17">
+      <c r="B97" s="7">
         <v>13</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="26" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26" t="s">
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L97" s="26" t="s">
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M97" s="26"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
     </row>
     <row r="98" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="53">
+      <c r="B98" s="36">
         <v>14</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="26" t="s">
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26" t="s">
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L98" s="27" t="s">
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="27"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B99" s="17">
+      <c r="B99" s="7">
         <v>15</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="26" t="s">
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26" t="s">
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L99" s="26"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B100" s="53">
+      <c r="B100" s="36">
         <v>16</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="26" t="s">
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26" t="s">
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B101" s="17">
+      <c r="B101" s="7">
         <v>17</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="26" t="s">
+      <c r="C101" s="21"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26" t="s">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
     </row>
     <row r="102" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="53">
+      <c r="B102" s="36">
         <v>18</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="26" t="s">
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26" t="s">
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L102" s="27" t="s">
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L102" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
     </row>
     <row r="103" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="17">
+      <c r="B103" s="7">
         <v>19</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="26" t="s">
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26" t="s">
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L103" s="27" t="s">
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L103" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B104" s="53">
+      <c r="B104" s="36">
         <v>20</v>
       </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="26" t="s">
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26" t="s">
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B105" s="17">
+      <c r="B105" s="7">
         <v>21</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="26" t="s">
+      <c r="C105" s="21"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26" t="s">
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
     </row>
     <row r="106" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="53">
+      <c r="B106" s="36">
         <v>22</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="26" t="s">
+      <c r="C106" s="21"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26" t="s">
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L106" s="27" t="s">
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B107" s="17">
+      <c r="B107" s="7">
         <v>23</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="26" t="s">
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26" t="s">
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
     </row>
     <row r="108" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="53">
+      <c r="B108" s="36">
         <v>24</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="26" t="s">
+      <c r="C108" s="23"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26" t="s">
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L108" s="27" t="s">
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L108" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11" t="s">
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B114" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="11"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
-      <c r="B115" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B116" s="15" t="s">
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B115" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B116" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
-    </row>
-    <row r="118" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="50" t="s">
+    </row>
+    <row r="118" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B118" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51" t="s">
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="50" t="s">
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K118" s="51" t="s">
+      <c r="K118" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L118" s="51"/>
-      <c r="M118" s="51"/>
-      <c r="N118" s="51"/>
-      <c r="O118" s="51"/>
-    </row>
-    <row r="119" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="18">
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+    </row>
+    <row r="119" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B119" s="7">
         <v>1</v>
       </c>
-      <c r="C119" s="43" t="s">
+      <c r="C119" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43" t="s">
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="43"/>
-      <c r="O119" s="43"/>
-    </row>
-    <row r="120" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="18">
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B120" s="7">
         <v>2</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C120" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43" t="s">
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K120" s="43"/>
-      <c r="L120" s="43"/>
-      <c r="M120" s="43"/>
-      <c r="N120" s="43"/>
-      <c r="O120" s="43"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="K118:O118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="K119:O119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="C96:D108"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C54:D62"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="L106:O106"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F33:H33"/>
@@ -4469,18 +4267,29 @@
     <mergeCell ref="E89:G89"/>
     <mergeCell ref="H89:J89"/>
     <mergeCell ref="L89:O89"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="L108:O108"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="K118:O118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="K119:O119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="L86:O86"/>
     <mergeCell ref="L71:O71"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="H65:J65"/>
@@ -4491,118 +4300,6 @@
     <mergeCell ref="E69:G69"/>
     <mergeCell ref="H69:J69"/>
     <mergeCell ref="L69:O69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C54:D62"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="L102:O102"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="C96:D108"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="L103:O103"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4614,1012 +4311,835 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.09765625" style="2"/>
+    <col min="1" max="2" width="3.69921875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
     <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="14" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="7">
         <v>1</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
     </row>
     <row r="29" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="10" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
     </row>
     <row r="30" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
+      <c r="B30" s="7">
         <v>3</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="10" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B31" s="7">
         <v>4</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="10" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+      <c r="B32" s="7">
         <v>5</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="10" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41" t="s">
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="42" t="s">
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
     </row>
     <row r="40" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12">
+      <c r="B40" s="7">
         <v>1</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="26" t="s">
+      <c r="D40" s="29"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26" t="s">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12">
+      <c r="B41" s="7">
         <v>2</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="26" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12">
+      <c r="B42" s="7">
         <v>3</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="26" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12">
+      <c r="B43" s="7">
         <v>4</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="26" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26" t="s">
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27" t="s">
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
     </row>
     <row r="44" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12">
+      <c r="B44" s="7">
         <v>5</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="26" t="s">
+      <c r="D44" s="29"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26" t="s">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
     </row>
     <row r="45" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12">
+      <c r="B45" s="7">
         <v>6</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="26" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26" t="s">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27" t="s">
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
     </row>
     <row r="46" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12">
+      <c r="B46" s="7">
         <v>7</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="26" t="s">
+      <c r="D46" s="29"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26" t="s">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
     </row>
     <row r="47" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12">
+      <c r="B47" s="7">
         <v>8</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="26" t="s">
+      <c r="D47" s="29"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26" t="s">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
     </row>
     <row r="48" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12">
+      <c r="B48" s="7">
         <v>9</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="26" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26" t="s">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="27" t="s">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
     </row>
     <row r="49" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="11"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="45" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="43" t="s">
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43" t="s">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="44" t="s">
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B59" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="11"/>
+      <c r="B59" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B62" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+    </row>
+    <row r="63" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B62" s="16" t="s">
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+    </row>
+    <row r="64" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="7">
+        <v>2</v>
+      </c>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+    </row>
+    <row r="65" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M65" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A69" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B71" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B72" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B73" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B75" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="25" t="s">
+      <c r="C75" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="3" t="s">
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M62" s="25" t="s">
+      <c r="K75" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B63" s="17">
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B76" s="7">
         <v>1</v>
       </c>
-      <c r="C63" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="43" t="s">
+      <c r="C76" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-    </row>
-    <row r="64" spans="1:18" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="17">
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B77" s="7">
         <v>2</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="43" t="s">
+      <c r="C77" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43" t="s">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-    </row>
-    <row r="65" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="17">
-        <v>3</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A69" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B73" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-    </row>
-    <row r="75" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="K75" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-    </row>
-    <row r="76" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="18">
-        <v>1</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-    </row>
-    <row r="77" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
-        <v>2</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="K77:O77"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="M65:Q65"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="M64:Q64"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="M63:Q63"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="I40:M40"/>
     <mergeCell ref="N40:R40"/>
@@ -5636,24 +5156,61 @@
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="I43:M43"/>
     <mergeCell ref="N43:R43"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="L32:P32"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="L31:P31"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="M64:Q64"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="K77:O77"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="M65:Q65"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="K76:O76"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
